--- a/Rapport/HTML/README.xlsx
+++ b/Rapport/HTML/README.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">NumRapport</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">Test de Leaflet sous Shiny pour visualiser les parcours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déploiement serveur et docker</t>
   </si>
 </sst>
 </file>
@@ -59,6 +62,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -144,18 +148,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.8469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.6275510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.2397959183674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -198,6 +200,17 @@
       </c>
       <c r="D3" s="0" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>42422</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
